--- a/stats2.xlsx
+++ b/stats2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbrewster\Documents\teks\ExcelReader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8C65F1-BE1B-4C31-882C-18FC5493E092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC0E5F3-A4DE-4AD5-9EDC-7813AAE487B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0754D293-5338-44DB-95CE-A342A729451E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0754D293-5338-44DB-95CE-A342A729451E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -478,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BC73C9-A353-4CDA-A42C-F129025D6A8D}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
@@ -489,22 +481,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>94</v>
+        <v>363</v>
       </c>
       <c r="C1" s="2">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2">
-        <v>97</v>
+        <v>390</v>
       </c>
       <c r="E1" s="2">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2">
-        <v>0.245</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="G1" s="2">
-        <v>0.73099999999999998</v>
+        <v>0.78700000000000003</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -512,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>113</v>
+        <v>405</v>
       </c>
       <c r="C2" s="2">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2">
-        <v>98</v>
+        <v>368</v>
       </c>
       <c r="E2" s="2">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2">
-        <v>0.23599999999999999</v>
+        <v>0.248</v>
       </c>
       <c r="G2" s="2">
-        <v>0.749</v>
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -535,19 +527,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>102</v>
+        <v>383</v>
       </c>
       <c r="C3" s="2">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2">
-        <v>102</v>
+        <v>374</v>
       </c>
       <c r="E3" s="2">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2">
-        <v>0.22500000000000001</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="G3" s="2">
         <v>0.71399999999999997</v>
@@ -558,22 +550,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="C4" s="2">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="E4" s="2">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2">
-        <v>0.224</v>
+        <v>0.248</v>
       </c>
       <c r="G4" s="2">
-        <v>0.64900000000000002</v>
+        <v>0.72399999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -581,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>94</v>
+        <v>412</v>
       </c>
       <c r="C5" s="2">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2">
-        <v>87</v>
+        <v>391</v>
       </c>
       <c r="E5" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2">
-        <v>0.26100000000000001</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="G5" s="2">
-        <v>0.78700000000000003</v>
+        <v>0.83599999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -604,22 +596,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>107</v>
+        <v>382</v>
       </c>
       <c r="C6" s="2">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2">
-        <v>95</v>
+        <v>343</v>
       </c>
       <c r="E6" s="2">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2">
-        <v>0.27900000000000003</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="G6" s="2">
-        <v>0.78600000000000003</v>
+        <v>0.77600000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -627,22 +619,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>106</v>
+        <v>400</v>
       </c>
       <c r="C7" s="2">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2">
-        <v>91</v>
+        <v>385</v>
       </c>
       <c r="E7" s="2">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2">
-        <v>0.24199999999999999</v>
+        <v>0.251</v>
       </c>
       <c r="G7" s="2">
-        <v>0.753</v>
+        <v>0.76300000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -650,22 +642,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>103</v>
+        <v>424</v>
       </c>
       <c r="C8" s="4">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="D8" s="4">
-        <v>83</v>
+        <v>381</v>
       </c>
       <c r="E8" s="4">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F8" s="4">
-        <v>0.22500000000000001</v>
+        <v>0.253</v>
       </c>
       <c r="G8" s="4">
-        <v>0.69899999999999995</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -673,22 +665,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>104</v>
+        <v>374</v>
       </c>
       <c r="C9" s="2">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="E9" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2">
-        <v>0.25900000000000001</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="G9" s="2">
-        <v>0.79300000000000004</v>
+        <v>0.79500000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -696,22 +688,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>126</v>
+        <v>424</v>
       </c>
       <c r="C10" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2">
-        <v>111</v>
+        <v>374</v>
       </c>
       <c r="E10" s="2">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2">
-        <v>0.26900000000000002</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="G10" s="2">
-        <v>0.81100000000000005</v>
+        <v>0.76300000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -719,22 +711,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>100</v>
+        <v>399</v>
       </c>
       <c r="C11" s="2">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="D11" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="E11" s="2">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2">
-        <v>0.23300000000000001</v>
+        <v>0.254</v>
       </c>
       <c r="G11" s="2">
-        <v>0.73799999999999999</v>
+        <v>0.78800000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -742,22 +734,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>104</v>
+        <v>393</v>
       </c>
       <c r="C12" s="2">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="D12" s="2">
-        <v>82</v>
+        <v>366</v>
       </c>
       <c r="E12" s="2">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2">
-        <v>0.23499999999999999</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="G12" s="2">
-        <v>0.70699999999999996</v>
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -765,22 +757,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>124</v>
+        <v>412</v>
       </c>
       <c r="C13" s="2">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="D13" s="2">
-        <v>116</v>
+        <v>432</v>
       </c>
       <c r="E13" s="2">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F13" s="2">
-        <v>0.245</v>
+        <v>0.25</v>
       </c>
       <c r="G13" s="2">
-        <v>0.748</v>
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -788,40 +780,40 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>113</v>
+        <v>409</v>
       </c>
       <c r="C14" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="D14" s="2">
-        <v>126</v>
+        <v>427</v>
       </c>
       <c r="E14" s="2">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2">
         <v>0.251</v>
       </c>
       <c r="G14" s="2">
-        <v>0.79700000000000004</v>
+        <v>0.78700000000000003</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://baseball.fantasysports.yahoo.com/b1/29905/1" xr:uid="{ECE025B8-1143-4CAE-886C-2447258BD536}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://baseball.fantasysports.yahoo.com/b1/29905/3" xr:uid="{C14570C0-923C-4D17-BA7B-21C81FCE74A1}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://baseball.fantasysports.yahoo.com/b1/29905/4" xr:uid="{8FBC02BD-1CFC-4419-9B87-9C5C38EEC9CC}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://baseball.fantasysports.yahoo.com/b1/29905/5" xr:uid="{B43F18DB-DF1B-4AE6-B321-6A90134A10EF}"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://baseball.fantasysports.yahoo.com/b1/29905/6" xr:uid="{76037FDB-0F5F-4BC6-A7D2-3EF30766FCF7}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://baseball.fantasysports.yahoo.com/b1/29905/7" xr:uid="{367D4816-0613-4CA6-A9AF-6D2E7DA9CAB0}"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://baseball.fantasysports.yahoo.com/b1/29905/8" xr:uid="{ECB20B64-127D-48A2-A378-5B5FC5B92188}"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://baseball.fantasysports.yahoo.com/b1/29905/9" xr:uid="{D5A1E494-2814-4B35-ABF3-297417054B08}"/>
-    <hyperlink ref="A9" r:id="rId9" display="https://baseball.fantasysports.yahoo.com/b1/29905/10" xr:uid="{AACC39F4-8B8D-43CD-90C8-A2721AEB0601}"/>
-    <hyperlink ref="A10" r:id="rId10" display="https://baseball.fantasysports.yahoo.com/b1/29905/11" xr:uid="{E68040AE-9CC6-41F6-ADD8-B4C45F0BF347}"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://baseball.fantasysports.yahoo.com/b1/29905/12" xr:uid="{8DEF1E37-9C92-4856-B189-91A5CAE3E077}"/>
-    <hyperlink ref="A12" r:id="rId12" display="https://baseball.fantasysports.yahoo.com/b1/29905/13" xr:uid="{8C38B20A-D89F-4FCB-8A6A-AD58C45D2581}"/>
-    <hyperlink ref="A13" r:id="rId13" display="https://baseball.fantasysports.yahoo.com/b1/29905/14" xr:uid="{6B864BA4-7FEA-48E3-AF57-E1E921FF00C1}"/>
-    <hyperlink ref="A14" r:id="rId14" display="https://baseball.fantasysports.yahoo.com/b1/29905/15" xr:uid="{C307E9AF-DD33-4B23-A1F5-E3CA51495AC2}"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://baseball.fantasysports.yahoo.com/b1/29905/1" xr:uid="{F798ECE9-8717-4AC4-93B6-DAA778DC42F2}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://baseball.fantasysports.yahoo.com/b1/29905/3" xr:uid="{B3B67148-A053-49FD-A708-39BABB953081}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://baseball.fantasysports.yahoo.com/b1/29905/4" xr:uid="{41141242-60C6-4587-821F-2AA0A79B7C7C}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://baseball.fantasysports.yahoo.com/b1/29905/5" xr:uid="{B8DB40E8-7945-49A8-8D86-E405ECE01641}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://baseball.fantasysports.yahoo.com/b1/29905/6" xr:uid="{A9A92FF8-54EB-4880-B386-4C0AED5CD8EB}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://baseball.fantasysports.yahoo.com/b1/29905/7" xr:uid="{93E0F7C0-C461-4593-94E4-3C9F7D105CEB}"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://baseball.fantasysports.yahoo.com/b1/29905/8" xr:uid="{2D90CF4E-97C9-4E4A-9267-06DA7FFA0AD5}"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://baseball.fantasysports.yahoo.com/b1/29905/9" xr:uid="{82DCE464-113A-4F89-8E1E-E85BE26FA13D}"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://baseball.fantasysports.yahoo.com/b1/29905/10" xr:uid="{556356D0-99B9-4654-B8FD-A72D3087D69D}"/>
+    <hyperlink ref="A10" r:id="rId10" display="https://baseball.fantasysports.yahoo.com/b1/29905/11" xr:uid="{8E4747F1-F0D3-4900-8596-1CEA02620DC3}"/>
+    <hyperlink ref="A11" r:id="rId11" display="https://baseball.fantasysports.yahoo.com/b1/29905/12" xr:uid="{1C8FBBCB-FFF0-4704-B0CF-0CF7559B049B}"/>
+    <hyperlink ref="A12" r:id="rId12" display="https://baseball.fantasysports.yahoo.com/b1/29905/13" xr:uid="{ED1712E7-5DEF-4F52-8D48-449F72D1A7A0}"/>
+    <hyperlink ref="A13" r:id="rId13" display="https://baseball.fantasysports.yahoo.com/b1/29905/14" xr:uid="{746B7E2D-477E-4E96-99F4-AA286DB98519}"/>
+    <hyperlink ref="A14" r:id="rId14" display="https://baseball.fantasysports.yahoo.com/b1/29905/15" xr:uid="{19545E02-CF4B-4C38-A648-7089B8FAFF1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId15"/>
@@ -832,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EFD190-15A6-4D3A-9959-647B05994F97}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -843,22 +835,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2">
-        <v>246</v>
+        <v>896</v>
       </c>
       <c r="D1" s="2">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="E1" s="2">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="F1" s="2">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="G1" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -866,22 +858,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2">
-        <v>258</v>
+        <v>854</v>
       </c>
       <c r="D2" s="2">
-        <v>3.34</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="E2" s="2">
-        <v>1.1499999999999999</v>
+        <v>1.26</v>
       </c>
       <c r="F2" s="2">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -889,22 +881,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
-        <v>246</v>
+        <v>820</v>
       </c>
       <c r="D3" s="2">
-        <v>2.66</v>
+        <v>3.38</v>
       </c>
       <c r="E3" s="2">
-        <v>0.88</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F3" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -912,22 +904,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2">
-        <v>162</v>
+        <v>616</v>
       </c>
       <c r="D4" s="2">
-        <v>4.13</v>
+        <v>3.6</v>
       </c>
       <c r="E4" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F4" s="2">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -935,22 +927,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2">
-        <v>233</v>
+        <v>833</v>
       </c>
       <c r="D5" s="2">
-        <v>4.78</v>
+        <v>4.34</v>
       </c>
       <c r="E5" s="2">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="F5" s="2">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -958,22 +950,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2">
-        <v>238</v>
+        <v>809</v>
       </c>
       <c r="D6" s="2">
-        <v>3.21</v>
+        <v>3.58</v>
       </c>
       <c r="E6" s="2">
-        <v>1.03</v>
+        <v>1.17</v>
       </c>
       <c r="F6" s="2">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -981,22 +973,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2">
-        <v>177</v>
+        <v>717</v>
       </c>
       <c r="D7" s="2">
-        <v>3.84</v>
+        <v>4.24</v>
       </c>
       <c r="E7" s="2">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="F7" s="2">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1004,22 +996,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C8" s="4">
-        <v>214</v>
+        <v>877</v>
       </c>
       <c r="D8" s="4">
-        <v>4.2</v>
+        <v>3.87</v>
       </c>
       <c r="E8" s="4">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="F8" s="4">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G8" s="4">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1027,19 +1019,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2">
-        <v>256</v>
+        <v>912</v>
       </c>
       <c r="D9" s="2">
-        <v>4.58</v>
+        <v>3.78</v>
       </c>
       <c r="E9" s="2">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="F9" s="2">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1050,22 +1042,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2">
-        <v>211</v>
+        <v>853</v>
       </c>
       <c r="D10" s="2">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="E10" s="2">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="F10" s="2">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1073,22 +1065,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2">
-        <v>234</v>
+        <v>770</v>
       </c>
       <c r="D11" s="2">
-        <v>3.38</v>
+        <v>3.28</v>
       </c>
       <c r="E11" s="2">
-        <v>1.18</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F11" s="2">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1096,22 +1088,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2">
-        <v>254</v>
+        <v>934</v>
       </c>
       <c r="D12" s="2">
-        <v>3.77</v>
+        <v>3.55</v>
       </c>
       <c r="E12" s="2">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="F12" s="2">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="G12" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1119,22 +1111,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2">
-        <v>174</v>
+        <v>555</v>
       </c>
       <c r="D13" s="2">
-        <v>4.1100000000000003</v>
+        <v>4.46</v>
       </c>
       <c r="E13" s="2">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="F13" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G13" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -1142,40 +1134,40 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2">
-        <v>249</v>
+        <v>785</v>
       </c>
       <c r="D14" s="2">
-        <v>3.67</v>
+        <v>3.58</v>
       </c>
       <c r="E14" s="2">
-        <v>1.08</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F14" s="2">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G14" s="2">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://baseball.fantasysports.yahoo.com/b1/29905/1" xr:uid="{E3CD041D-9CF6-465E-B48E-CF36A5FA97D3}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://baseball.fantasysports.yahoo.com/b1/29905/3" xr:uid="{5C79036F-C7ED-4BE6-8F46-D18A6FF80C81}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://baseball.fantasysports.yahoo.com/b1/29905/4" xr:uid="{27864DD3-C416-41C9-A6A0-6CA205A90ED4}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://baseball.fantasysports.yahoo.com/b1/29905/5" xr:uid="{9D4276B3-F55B-42E4-9700-4C1AC356D3C3}"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://baseball.fantasysports.yahoo.com/b1/29905/6" xr:uid="{D7EBAEE3-A6D5-4B4F-B46A-94F836BBE42E}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://baseball.fantasysports.yahoo.com/b1/29905/7" xr:uid="{9112C6D2-D9D5-4073-AF9F-02A4F5BB5891}"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://baseball.fantasysports.yahoo.com/b1/29905/8" xr:uid="{E09C5880-D285-4503-B362-24A4A3A1E111}"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://baseball.fantasysports.yahoo.com/b1/29905/9" xr:uid="{B0786B56-465B-4C8A-8371-88688AAF3120}"/>
-    <hyperlink ref="A9" r:id="rId9" display="https://baseball.fantasysports.yahoo.com/b1/29905/10" xr:uid="{07D1B055-33B4-4C16-9A5E-A4CBE662EB15}"/>
-    <hyperlink ref="A10" r:id="rId10" display="https://baseball.fantasysports.yahoo.com/b1/29905/11" xr:uid="{EED5587B-F43C-44FA-AF86-9D3643441659}"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://baseball.fantasysports.yahoo.com/b1/29905/12" xr:uid="{379005FB-88FD-4CAD-B511-AF83BAEB2B3B}"/>
-    <hyperlink ref="A12" r:id="rId12" display="https://baseball.fantasysports.yahoo.com/b1/29905/13" xr:uid="{ACB843A8-C455-4722-B5E2-05B5A9306589}"/>
-    <hyperlink ref="A13" r:id="rId13" display="https://baseball.fantasysports.yahoo.com/b1/29905/14" xr:uid="{8FAC5525-3688-4101-A0E4-3DBC0B457927}"/>
-    <hyperlink ref="A14" r:id="rId14" display="https://baseball.fantasysports.yahoo.com/b1/29905/15" xr:uid="{826D2DB6-EFE1-4FD8-B016-C9141C4408BC}"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://baseball.fantasysports.yahoo.com/b1/29905/1" xr:uid="{469A357B-1FCB-4494-8FA7-D890FFB16B4E}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://baseball.fantasysports.yahoo.com/b1/29905/3" xr:uid="{A23E041A-2C4E-468B-AA24-BC8F316547A6}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://baseball.fantasysports.yahoo.com/b1/29905/4" xr:uid="{0EEC5713-282E-4314-AFB9-322E16492D13}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://baseball.fantasysports.yahoo.com/b1/29905/5" xr:uid="{4B5A15D7-375A-4619-B631-940B774A6FD6}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://baseball.fantasysports.yahoo.com/b1/29905/6" xr:uid="{A67E4140-CADC-4AAC-A5BD-0E80FB951082}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://baseball.fantasysports.yahoo.com/b1/29905/7" xr:uid="{0DFFB088-36FB-4DF1-9E08-C3F9DD0AAAA2}"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://baseball.fantasysports.yahoo.com/b1/29905/8" xr:uid="{A6D1AE3A-C2DA-4DF1-BEE2-36DFF1AD4BDB}"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://baseball.fantasysports.yahoo.com/b1/29905/9" xr:uid="{4A30C19F-FCB0-4260-8321-392B9A480662}"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://baseball.fantasysports.yahoo.com/b1/29905/10" xr:uid="{6BE6B4D4-5630-4B8E-8E20-2206B8A35BF9}"/>
+    <hyperlink ref="A10" r:id="rId10" display="https://baseball.fantasysports.yahoo.com/b1/29905/11" xr:uid="{5EA55ABE-880C-45BF-87CB-9E30AF01BE9A}"/>
+    <hyperlink ref="A11" r:id="rId11" display="https://baseball.fantasysports.yahoo.com/b1/29905/12" xr:uid="{59B2151B-03F8-4DA7-B9E8-6D6F00A98820}"/>
+    <hyperlink ref="A12" r:id="rId12" display="https://baseball.fantasysports.yahoo.com/b1/29905/13" xr:uid="{576511C3-C122-4021-B528-2560A89FCACC}"/>
+    <hyperlink ref="A13" r:id="rId13" display="https://baseball.fantasysports.yahoo.com/b1/29905/14" xr:uid="{B845DE55-28B5-4A9D-84DE-0C1A2782CF10}"/>
+    <hyperlink ref="A14" r:id="rId14" display="https://baseball.fantasysports.yahoo.com/b1/29905/15" xr:uid="{B2D4C33D-6CF0-4D99-B012-CC265E9AFBC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId15"/>

--- a/stats2.xlsx
+++ b/stats2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbrewster\Documents\teks\ExcelReader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC0E5F3-A4DE-4AD5-9EDC-7813AAE487B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD411851-EF9C-47B2-AFD1-C3F995171D5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0754D293-5338-44DB-95CE-A342A729451E}"/>
+    <workbookView xWindow="-28920" yWindow="-1665" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0754D293-5338-44DB-95CE-A342A729451E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,22 +481,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="C1" s="2">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D1" s="2">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="E1" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2">
-        <v>0.26500000000000001</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="G1" s="2">
-        <v>0.78700000000000003</v>
+        <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="C2" s="2">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="E2" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2">
-        <v>0.248</v>
+        <v>0.25</v>
       </c>
       <c r="G2" s="2">
-        <v>0.77500000000000002</v>
+        <v>0.78400000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -527,22 +527,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="C3" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="E3" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2">
-        <v>0.23300000000000001</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="G3" s="2">
-        <v>0.71399999999999997</v>
+        <v>0.71899999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -550,22 +550,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="C4" s="2">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="E4" s="2">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2">
-        <v>0.248</v>
+        <v>0.252</v>
       </c>
       <c r="G4" s="2">
-        <v>0.72399999999999998</v>
+        <v>0.74099999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="C5" s="2">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="E5" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2">
-        <v>0.27200000000000002</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="G5" s="2">
-        <v>0.83599999999999997</v>
+        <v>0.83199999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -596,22 +596,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="C6" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="E6" s="2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F6" s="2">
-        <v>0.26600000000000001</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="G6" s="2">
-        <v>0.77600000000000002</v>
+        <v>0.76800000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -619,22 +619,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="C7" s="2">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D7" s="2">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="E7" s="2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F7" s="2">
-        <v>0.251</v>
+        <v>0.249</v>
       </c>
       <c r="G7" s="2">
-        <v>0.76300000000000001</v>
+        <v>0.75700000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -642,22 +642,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="C8" s="4">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D8" s="4">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="E8" s="4">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F8" s="4">
-        <v>0.253</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="G8" s="4">
-        <v>0.78</v>
+        <v>0.78500000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -665,22 +665,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="C9" s="2">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D9" s="2">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="E9" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2">
-        <v>0.26600000000000001</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="G9" s="2">
-        <v>0.79500000000000004</v>
+        <v>0.79400000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -688,22 +688,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>424</v>
+        <v>461</v>
       </c>
       <c r="C10" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D10" s="2">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="E10" s="2">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F10" s="2">
-        <v>0.26200000000000001</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="G10" s="2">
-        <v>0.76300000000000001</v>
+        <v>0.75700000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -711,22 +711,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="C11" s="2">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D11" s="2">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="E11" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2">
-        <v>0.254</v>
+        <v>0.251</v>
       </c>
       <c r="G11" s="2">
-        <v>0.78800000000000003</v>
+        <v>0.78200000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -734,22 +734,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="C12" s="2">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D12" s="2">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="E12" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2">
-        <v>0.25600000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="G12" s="2">
-        <v>0.77500000000000002</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -757,22 +757,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="C13" s="2">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D13" s="2">
-        <v>432</v>
+        <v>465</v>
       </c>
       <c r="E13" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F13" s="2">
-        <v>0.25</v>
+        <v>0.254</v>
       </c>
       <c r="G13" s="2">
-        <v>0.76500000000000001</v>
+        <v>0.77200000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -780,40 +780,40 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="C14" s="2">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D14" s="2">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="E14" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2">
-        <v>0.251</v>
+        <v>0.25</v>
       </c>
       <c r="G14" s="2">
-        <v>0.78700000000000003</v>
+        <v>0.78400000000000003</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://baseball.fantasysports.yahoo.com/b1/29905/1" xr:uid="{F798ECE9-8717-4AC4-93B6-DAA778DC42F2}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://baseball.fantasysports.yahoo.com/b1/29905/3" xr:uid="{B3B67148-A053-49FD-A708-39BABB953081}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://baseball.fantasysports.yahoo.com/b1/29905/4" xr:uid="{41141242-60C6-4587-821F-2AA0A79B7C7C}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://baseball.fantasysports.yahoo.com/b1/29905/5" xr:uid="{B8DB40E8-7945-49A8-8D86-E405ECE01641}"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://baseball.fantasysports.yahoo.com/b1/29905/6" xr:uid="{A9A92FF8-54EB-4880-B386-4C0AED5CD8EB}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://baseball.fantasysports.yahoo.com/b1/29905/7" xr:uid="{93E0F7C0-C461-4593-94E4-3C9F7D105CEB}"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://baseball.fantasysports.yahoo.com/b1/29905/8" xr:uid="{2D90CF4E-97C9-4E4A-9267-06DA7FFA0AD5}"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://baseball.fantasysports.yahoo.com/b1/29905/9" xr:uid="{82DCE464-113A-4F89-8E1E-E85BE26FA13D}"/>
-    <hyperlink ref="A9" r:id="rId9" display="https://baseball.fantasysports.yahoo.com/b1/29905/10" xr:uid="{556356D0-99B9-4654-B8FD-A72D3087D69D}"/>
-    <hyperlink ref="A10" r:id="rId10" display="https://baseball.fantasysports.yahoo.com/b1/29905/11" xr:uid="{8E4747F1-F0D3-4900-8596-1CEA02620DC3}"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://baseball.fantasysports.yahoo.com/b1/29905/12" xr:uid="{1C8FBBCB-FFF0-4704-B0CF-0CF7559B049B}"/>
-    <hyperlink ref="A12" r:id="rId12" display="https://baseball.fantasysports.yahoo.com/b1/29905/13" xr:uid="{ED1712E7-5DEF-4F52-8D48-449F72D1A7A0}"/>
-    <hyperlink ref="A13" r:id="rId13" display="https://baseball.fantasysports.yahoo.com/b1/29905/14" xr:uid="{746B7E2D-477E-4E96-99F4-AA286DB98519}"/>
-    <hyperlink ref="A14" r:id="rId14" display="https://baseball.fantasysports.yahoo.com/b1/29905/15" xr:uid="{19545E02-CF4B-4C38-A648-7089B8FAFF1D}"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://baseball.fantasysports.yahoo.com/b1/29905/1" xr:uid="{EC101A0D-B826-4347-BE73-4849FCC95526}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://baseball.fantasysports.yahoo.com/b1/29905/3" xr:uid="{451CC467-BCF6-4C98-BED3-BDFBA0BBBF6A}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://baseball.fantasysports.yahoo.com/b1/29905/4" xr:uid="{77A65F0D-6A0E-4C9E-BA4A-BA863E383554}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://baseball.fantasysports.yahoo.com/b1/29905/5" xr:uid="{43D43EE4-D8BF-43E7-810E-83F067E28439}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://baseball.fantasysports.yahoo.com/b1/29905/6" xr:uid="{52C13AB9-29A7-4AAE-963A-B2A32D6F8502}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://baseball.fantasysports.yahoo.com/b1/29905/7" xr:uid="{76F12480-CF6E-483F-AC0C-8AC4D46EE12E}"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://baseball.fantasysports.yahoo.com/b1/29905/8" xr:uid="{85472ACF-BC19-4309-83BB-E1CBC44D1455}"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://baseball.fantasysports.yahoo.com/b1/29905/9" xr:uid="{15E1C5FF-7E74-489A-8709-E7256E3D9C60}"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://baseball.fantasysports.yahoo.com/b1/29905/10" xr:uid="{BA82C6E3-D308-4BC4-A25F-6389F22D2749}"/>
+    <hyperlink ref="A10" r:id="rId10" display="https://baseball.fantasysports.yahoo.com/b1/29905/11" xr:uid="{F30A14F8-52C9-434E-8F98-CBFF6B64F9A8}"/>
+    <hyperlink ref="A11" r:id="rId11" display="https://baseball.fantasysports.yahoo.com/b1/29905/12" xr:uid="{E1623D1C-262B-4F5A-9D1A-9E6E2BCF29A0}"/>
+    <hyperlink ref="A12" r:id="rId12" display="https://baseball.fantasysports.yahoo.com/b1/29905/13" xr:uid="{1F0E3C13-A2F7-485D-9A7D-9670B18104FB}"/>
+    <hyperlink ref="A13" r:id="rId13" display="https://baseball.fantasysports.yahoo.com/b1/29905/14" xr:uid="{E78A4985-6680-446D-A026-392024F1E458}"/>
+    <hyperlink ref="A14" r:id="rId14" display="https://baseball.fantasysports.yahoo.com/b1/29905/15" xr:uid="{9889D21D-15E1-4E3B-9E95-FF7ED0F04FD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId15"/>
@@ -825,7 +825,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G14"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -835,22 +835,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2">
-        <v>896</v>
+        <v>970</v>
       </c>
       <c r="D1" s="2">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="E1" s="2">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="F1" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G1" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -858,22 +858,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
-        <v>854</v>
+        <v>923</v>
       </c>
       <c r="D2" s="2">
-        <v>4.1399999999999997</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="E2" s="2">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="F2" s="2">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -881,22 +881,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2">
-        <v>820</v>
+        <v>878</v>
       </c>
       <c r="D3" s="2">
-        <v>3.38</v>
+        <v>3.44</v>
       </c>
       <c r="E3" s="2">
-        <v>1.1100000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F3" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -904,19 +904,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2">
-        <v>616</v>
+        <v>660</v>
       </c>
       <c r="D4" s="2">
-        <v>3.6</v>
+        <v>3.64</v>
       </c>
       <c r="E4" s="2">
         <v>1.1200000000000001</v>
       </c>
       <c r="F4" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2">
         <v>70</v>
@@ -927,22 +927,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2">
-        <v>833</v>
+        <v>909</v>
       </c>
       <c r="D5" s="2">
-        <v>4.34</v>
+        <v>4.54</v>
       </c>
       <c r="E5" s="2">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="F5" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -950,22 +950,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2">
-        <v>809</v>
+        <v>857</v>
       </c>
       <c r="D6" s="2">
-        <v>3.58</v>
+        <v>3.63</v>
       </c>
       <c r="E6" s="2">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="F6" s="2">
         <v>52</v>
       </c>
       <c r="G6" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -973,19 +973,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2">
-        <v>717</v>
+        <v>792</v>
       </c>
       <c r="D7" s="2">
-        <v>4.24</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="E7" s="2">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="F7" s="2">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G7" s="2">
         <v>-1</v>
@@ -996,22 +996,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4">
-        <v>877</v>
+        <v>936</v>
       </c>
       <c r="D8" s="4">
-        <v>3.87</v>
+        <v>3.85</v>
       </c>
       <c r="E8" s="4">
         <v>1.2</v>
       </c>
       <c r="F8" s="4">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G8" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1022,19 +1022,19 @@
         <v>67</v>
       </c>
       <c r="C9" s="2">
-        <v>912</v>
+        <v>967</v>
       </c>
       <c r="D9" s="2">
-        <v>3.78</v>
+        <v>3.91</v>
       </c>
       <c r="E9" s="2">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="F9" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1042,19 +1042,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2">
-        <v>853</v>
+        <v>908</v>
       </c>
       <c r="D10" s="2">
-        <v>3.73</v>
+        <v>3.9</v>
       </c>
       <c r="E10" s="2">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="F10" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G10" s="2">
         <v>2</v>
@@ -1065,22 +1065,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2">
-        <v>770</v>
+        <v>833</v>
       </c>
       <c r="D11" s="2">
-        <v>3.28</v>
+        <v>3.49</v>
       </c>
       <c r="E11" s="2">
-        <v>1.1200000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F11" s="2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1088,22 +1088,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2">
-        <v>934</v>
+        <v>996</v>
       </c>
       <c r="D12" s="2">
-        <v>3.55</v>
+        <v>3.63</v>
       </c>
       <c r="E12" s="2">
         <v>1.19</v>
       </c>
       <c r="F12" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G12" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1111,19 +1111,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="D13" s="2">
-        <v>4.46</v>
+        <v>4.43</v>
       </c>
       <c r="E13" s="2">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="F13" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G13" s="2">
         <v>22</v>
@@ -1134,40 +1134,40 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2">
-        <v>785</v>
+        <v>860</v>
       </c>
       <c r="D14" s="2">
-        <v>3.58</v>
+        <v>3.52</v>
       </c>
       <c r="E14" s="2">
         <v>1.1299999999999999</v>
       </c>
       <c r="F14" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G14" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://baseball.fantasysports.yahoo.com/b1/29905/1" xr:uid="{469A357B-1FCB-4494-8FA7-D890FFB16B4E}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://baseball.fantasysports.yahoo.com/b1/29905/3" xr:uid="{A23E041A-2C4E-468B-AA24-BC8F316547A6}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://baseball.fantasysports.yahoo.com/b1/29905/4" xr:uid="{0EEC5713-282E-4314-AFB9-322E16492D13}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://baseball.fantasysports.yahoo.com/b1/29905/5" xr:uid="{4B5A15D7-375A-4619-B631-940B774A6FD6}"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://baseball.fantasysports.yahoo.com/b1/29905/6" xr:uid="{A67E4140-CADC-4AAC-A5BD-0E80FB951082}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://baseball.fantasysports.yahoo.com/b1/29905/7" xr:uid="{0DFFB088-36FB-4DF1-9E08-C3F9DD0AAAA2}"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://baseball.fantasysports.yahoo.com/b1/29905/8" xr:uid="{A6D1AE3A-C2DA-4DF1-BEE2-36DFF1AD4BDB}"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://baseball.fantasysports.yahoo.com/b1/29905/9" xr:uid="{4A30C19F-FCB0-4260-8321-392B9A480662}"/>
-    <hyperlink ref="A9" r:id="rId9" display="https://baseball.fantasysports.yahoo.com/b1/29905/10" xr:uid="{6BE6B4D4-5630-4B8E-8E20-2206B8A35BF9}"/>
-    <hyperlink ref="A10" r:id="rId10" display="https://baseball.fantasysports.yahoo.com/b1/29905/11" xr:uid="{5EA55ABE-880C-45BF-87CB-9E30AF01BE9A}"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://baseball.fantasysports.yahoo.com/b1/29905/12" xr:uid="{59B2151B-03F8-4DA7-B9E8-6D6F00A98820}"/>
-    <hyperlink ref="A12" r:id="rId12" display="https://baseball.fantasysports.yahoo.com/b1/29905/13" xr:uid="{576511C3-C122-4021-B528-2560A89FCACC}"/>
-    <hyperlink ref="A13" r:id="rId13" display="https://baseball.fantasysports.yahoo.com/b1/29905/14" xr:uid="{B845DE55-28B5-4A9D-84DE-0C1A2782CF10}"/>
-    <hyperlink ref="A14" r:id="rId14" display="https://baseball.fantasysports.yahoo.com/b1/29905/15" xr:uid="{B2D4C33D-6CF0-4D99-B012-CC265E9AFBC7}"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://baseball.fantasysports.yahoo.com/b1/29905/1" xr:uid="{C50C1148-731E-4285-9E43-19BC60CEFAA3}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://baseball.fantasysports.yahoo.com/b1/29905/3" xr:uid="{F6F3CF02-9DD8-4734-B008-C40700E91275}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://baseball.fantasysports.yahoo.com/b1/29905/4" xr:uid="{E6E5BEF0-04B5-41DA-AEDD-D686AEFBCE3B}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://baseball.fantasysports.yahoo.com/b1/29905/5" xr:uid="{D7B19820-96E7-41FE-A2BD-251750EE659F}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://baseball.fantasysports.yahoo.com/b1/29905/6" xr:uid="{B62736DB-24E9-4D4E-B937-31FF6BF4681F}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://baseball.fantasysports.yahoo.com/b1/29905/7" xr:uid="{0473A03A-0AD8-4B93-8336-A5B943A83419}"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://baseball.fantasysports.yahoo.com/b1/29905/8" xr:uid="{430863AF-495D-46E0-80B8-B575387A96D1}"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://baseball.fantasysports.yahoo.com/b1/29905/9" xr:uid="{C90F0B91-A044-4AF5-B557-E3CFD1D45614}"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://baseball.fantasysports.yahoo.com/b1/29905/10" xr:uid="{B26497C6-153E-4B91-B779-05C0230F0CB1}"/>
+    <hyperlink ref="A10" r:id="rId10" display="https://baseball.fantasysports.yahoo.com/b1/29905/11" xr:uid="{F88BCD5F-C687-431E-AE6E-94666EA2DA58}"/>
+    <hyperlink ref="A11" r:id="rId11" display="https://baseball.fantasysports.yahoo.com/b1/29905/12" xr:uid="{A20F012A-99ED-4B4E-A63A-C887EFD83F9A}"/>
+    <hyperlink ref="A12" r:id="rId12" display="https://baseball.fantasysports.yahoo.com/b1/29905/13" xr:uid="{E01A24DF-946F-4CCF-BBC3-6F15DF31A0DB}"/>
+    <hyperlink ref="A13" r:id="rId13" display="https://baseball.fantasysports.yahoo.com/b1/29905/14" xr:uid="{E7D07CA4-F60F-48E1-B883-EF7F24ECBED3}"/>
+    <hyperlink ref="A14" r:id="rId14" display="https://baseball.fantasysports.yahoo.com/b1/29905/15" xr:uid="{D72E7C4B-DE84-467C-9A5E-FB18A3E1BBD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId15"/>
